--- a/branches/master/ValueSet-vs-vl-suppression.xlsx
+++ b/branches/master/ValueSet-vs-vl-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T09:46:20+00:00</t>
+    <t>2023-02-18T10:13:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-vl-suppression.xlsx
+++ b/branches/master/ValueSet-vs-vl-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:13:11+00:00</t>
+    <t>2023-02-18T11:17:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-vl-suppression.xlsx
+++ b/branches/master/ValueSet-vs-vl-suppression.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from Viral load Suppr" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from SNOMED CT" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:17:38+00:00</t>
+    <t>2023-02-18T14:27:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -99,10 +99,25 @@
     <t>BooleanType[null]</t>
   </si>
   <si>
-    <t>Codes</t>
-  </si>
-  <si>
-    <t>All codes</t>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>245780008</t>
+  </si>
+  <si>
+    <t>Suppressed (qualifier value)</t>
+  </si>
+  <si>
+    <t>19032002</t>
+  </si>
+  <si>
+    <t>Uncontrolled (qualifier value)</t>
+  </si>
+  <si>
+    <t>54690008</t>
+  </si>
+  <si>
+    <t>Unknown (origin) (qualifier value)</t>
   </si>
   <si>
     <t/>
@@ -111,7 +126,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/hiv-cbs/CodeSystem/cs-vl-suppression</t>
+    <t>http://snomed.info/sct</t>
   </si>
 </sst>
 </file>
@@ -378,7 +393,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -392,26 +407,48 @@
       <c r="A1" t="s" s="1">
         <v>28</v>
       </c>
+      <c r="B1" t="s" s="1">
+        <v>22</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>29</v>
       </c>
+      <c r="B2" t="s" s="2">
+        <v>30</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/branches/master/ValueSet-vs-vl-suppression.xlsx
+++ b/branches/master/ValueSet-vs-vl-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T14:27:51+00:00</t>
+    <t>2023-02-21T11:45:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-vl-suppression.xlsx
+++ b/branches/master/ValueSet-vs-vl-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T11:45:55+00:00</t>
+    <t>2023-02-21T13:35:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-vl-suppression.xlsx
+++ b/branches/master/ValueSet-vs-vl-suppression.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Viral load Suppressions Status</t>
+    <t>Viral Load Suppressions Status</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T13:35:57+00:00</t>
+    <t>2023-02-21T14:10:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A list of Viral load Statuses</t>
+    <t>Describes a patient's current viral load status.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/branches/master/ValueSet-vs-vl-suppression.xlsx
+++ b/branches/master/ValueSet-vs-vl-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T14:10:21+00:00</t>
+    <t>2023-02-22T13:02:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-vl-suppression.xlsx
+++ b/branches/master/ValueSet-vs-vl-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T13:02:41+00:00</t>
+    <t>2023-02-22T15:15:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,10 +114,10 @@
     <t>Uncontrolled (qualifier value)</t>
   </si>
   <si>
-    <t>54690008</t>
-  </si>
-  <si>
-    <t>Unknown (origin) (qualifier value)</t>
+    <t>261665006</t>
+  </si>
+  <si>
+    <t>Unknown (qualifier value)</t>
   </si>
   <si>
     <t/>

--- a/branches/master/ValueSet-vs-vl-suppression.xlsx
+++ b/branches/master/ValueSet-vs-vl-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T15:15:41+00:00</t>
+    <t>2023-02-22T15:26:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-vl-suppression.xlsx
+++ b/branches/master/ValueSet-vs-vl-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T15:26:08+00:00</t>
+    <t>2023-02-22T15:39:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-vl-suppression.xlsx
+++ b/branches/master/ValueSet-vs-vl-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T15:39:39+00:00</t>
+    <t>2023-02-23T08:27:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-vl-suppression.xlsx
+++ b/branches/master/ValueSet-vs-vl-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T08:27:18+00:00</t>
+    <t>2023-02-23T13:59:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-vl-suppression.xlsx
+++ b/branches/master/ValueSet-vs-vl-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T13:59:47+00:00</t>
+    <t>2023-02-23T14:48:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-vl-suppression.xlsx
+++ b/branches/master/ValueSet-vs-vl-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T14:48:28+00:00</t>
+    <t>2023-02-24T11:38:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-vl-suppression.xlsx
+++ b/branches/master/ValueSet-vs-vl-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T11:38:09+00:00</t>
+    <t>2023-02-24T14:30:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-vl-suppression.xlsx
+++ b/branches/master/ValueSet-vs-vl-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T14:30:46+00:00</t>
+    <t>2023-02-27T07:31:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-vl-suppression.xlsx
+++ b/branches/master/ValueSet-vs-vl-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T07:31:33+00:00</t>
+    <t>2023-02-27T08:19:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-vl-suppression.xlsx
+++ b/branches/master/ValueSet-vs-vl-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T08:19:52+00:00</t>
+    <t>2023-02-27T11:03:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-vl-suppression.xlsx
+++ b/branches/master/ValueSet-vs-vl-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T11:03:37+00:00</t>
+    <t>2023-02-27T11:43:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-vl-suppression.xlsx
+++ b/branches/master/ValueSet-vs-vl-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T11:43:01+00:00</t>
+    <t>2023-02-28T11:30:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-vl-suppression.xlsx
+++ b/branches/master/ValueSet-vs-vl-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T11:30:20+00:00</t>
+    <t>2023-03-01T12:32:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-vl-suppression.xlsx
+++ b/branches/master/ValueSet-vs-vl-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T12:32:05+00:00</t>
+    <t>2023-03-01T13:09:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-vl-suppression.xlsx
+++ b/branches/master/ValueSet-vs-vl-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T13:09:29+00:00</t>
+    <t>2023-03-02T06:11:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-vl-suppression.xlsx
+++ b/branches/master/ValueSet-vs-vl-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:11:53+00:00</t>
+    <t>2023-03-02T07:03:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-vl-suppression.xlsx
+++ b/branches/master/ValueSet-vs-vl-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T07:03:01+00:00</t>
+    <t>2023-03-02T10:01:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-vl-suppression.xlsx
+++ b/branches/master/ValueSet-vs-vl-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T10:01:05+00:00</t>
+    <t>2023-03-02T11:57:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-vl-suppression.xlsx
+++ b/branches/master/ValueSet-vs-vl-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T11:57:08+00:00</t>
+    <t>2023-03-02T16:08:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-vl-suppression.xlsx
+++ b/branches/master/ValueSet-vs-vl-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T16:08:14+00:00</t>
+    <t>2023-03-03T12:35:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-vl-suppression.xlsx
+++ b/branches/master/ValueSet-vs-vl-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T12:35:01+00:00</t>
+    <t>2023-03-03T12:56:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-vl-suppression.xlsx
+++ b/branches/master/ValueSet-vs-vl-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T12:56:42+00:00</t>
+    <t>2023-03-03T14:58:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-vl-suppression.xlsx
+++ b/branches/master/ValueSet-vs-vl-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T14:58:49+00:00</t>
+    <t>2023-03-03T15:51:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-vl-suppression.xlsx
+++ b/branches/master/ValueSet-vs-vl-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:51:33+00:00</t>
+    <t>2023-03-04T08:23:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-vl-suppression.xlsx
+++ b/branches/master/ValueSet-vs-vl-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T08:23:50+00:00</t>
+    <t>2023-03-05T11:45:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-vl-suppression.xlsx
+++ b/branches/master/ValueSet-vs-vl-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T11:45:33+00:00</t>
+    <t>2023-03-06T07:25:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-vl-suppression.xlsx
+++ b/branches/master/ValueSet-vs-vl-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T07:25:44+00:00</t>
+    <t>2023-03-06T13:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-vl-suppression.xlsx
+++ b/branches/master/ValueSet-vs-vl-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T13:23:19+00:00</t>
+    <t>2023-03-06T13:58:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-vl-suppression.xlsx
+++ b/branches/master/ValueSet-vs-vl-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T13:58:50+00:00</t>
+    <t>2023-03-07T12:18:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-vl-suppression.xlsx
+++ b/branches/master/ValueSet-vs-vl-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T12:18:55+00:00</t>
+    <t>2023-03-07T17:18:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-vl-suppression.xlsx
+++ b/branches/master/ValueSet-vs-vl-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T17:18:24+00:00</t>
+    <t>2023-03-08T14:44:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-vl-suppression.xlsx
+++ b/branches/master/ValueSet-vs-vl-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T14:44:18+00:00</t>
+    <t>2023-03-08T15:59:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-vl-suppression.xlsx
+++ b/branches/master/ValueSet-vs-vl-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T15:59:39+00:00</t>
+    <t>2023-03-09T11:23:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-vl-suppression.xlsx
+++ b/branches/master/ValueSet-vs-vl-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T11:23:43+00:00</t>
+    <t>2023-04-04T11:13:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
